--- a/Code/Results/Cases/Case_0_194/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_194/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.441690205457451</v>
+        <v>13.23746348673675</v>
       </c>
       <c r="D2">
-        <v>5.370447288209793</v>
+        <v>7.861840526418574</v>
       </c>
       <c r="E2">
-        <v>8.099890687006104</v>
+        <v>13.74095183263102</v>
       </c>
       <c r="F2">
-        <v>25.47155490368825</v>
+        <v>41.05149137349137</v>
       </c>
       <c r="G2">
-        <v>2.120147889713467</v>
+        <v>3.713539489774528</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.104136995789998</v>
+        <v>10.88061863655646</v>
       </c>
       <c r="K2">
-        <v>20.33986029482119</v>
+        <v>17.75223641474558</v>
       </c>
       <c r="L2">
-        <v>5.352110422180286</v>
+        <v>9.498150120840561</v>
       </c>
       <c r="M2">
-        <v>16.32872679289148</v>
+        <v>19.82269561601675</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.96399599685894</v>
+        <v>31.77028743180739</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.166251272366894</v>
+        <v>13.22425584661412</v>
       </c>
       <c r="D3">
-        <v>5.192792978160813</v>
+        <v>7.838529891602969</v>
       </c>
       <c r="E3">
-        <v>8.075084819574611</v>
+        <v>13.76651090745077</v>
       </c>
       <c r="F3">
-        <v>25.47058247026453</v>
+        <v>41.21954515935457</v>
       </c>
       <c r="G3">
-        <v>2.126642166316931</v>
+        <v>3.715969857776541</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.174329517671919</v>
+        <v>10.91018932197322</v>
       </c>
       <c r="K3">
-        <v>18.98029971492319</v>
+        <v>17.33209219143146</v>
       </c>
       <c r="L3">
-        <v>5.386834292462651</v>
+        <v>9.513395207208077</v>
       </c>
       <c r="M3">
-        <v>15.51474717126328</v>
+        <v>19.65887455561484</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.12334043793812</v>
+        <v>31.92225163239497</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.998894365841972</v>
+        <v>13.21874699075762</v>
       </c>
       <c r="D4">
-        <v>5.082035912754781</v>
+        <v>7.824916626170099</v>
       </c>
       <c r="E4">
-        <v>8.0635628175944</v>
+        <v>13.78393265460808</v>
       </c>
       <c r="F4">
-        <v>25.49825262260815</v>
+        <v>41.33264472467492</v>
       </c>
       <c r="G4">
-        <v>2.130745263944612</v>
+        <v>3.717540565344657</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.219256574031673</v>
+        <v>10.92938439290766</v>
       </c>
       <c r="K4">
-        <v>18.09651172756279</v>
+        <v>17.0702152158143</v>
       </c>
       <c r="L4">
-        <v>5.40904978268004</v>
+        <v>9.523297523306272</v>
       </c>
       <c r="M4">
-        <v>14.9970118017584</v>
+        <v>19.55966481800317</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.2417927112491</v>
+        <v>32.02281814851498</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.931224002025981</v>
+        <v>13.2171583315758</v>
       </c>
       <c r="D5">
-        <v>5.036536832179276</v>
+        <v>7.819548088194829</v>
       </c>
       <c r="E5">
-        <v>8.059782572384524</v>
+        <v>13.79146709523165</v>
       </c>
       <c r="F5">
-        <v>25.51632464465962</v>
+        <v>41.38121992805446</v>
       </c>
       <c r="G5">
-        <v>2.132447253335344</v>
+        <v>3.718200433273164</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.238024940209601</v>
+        <v>10.93746831961207</v>
       </c>
       <c r="K5">
-        <v>17.72396173697929</v>
+        <v>16.9626546028017</v>
       </c>
       <c r="L5">
-        <v>5.418330143759403</v>
+        <v>9.527469423672184</v>
       </c>
       <c r="M5">
-        <v>14.78173441273106</v>
+        <v>19.51961410422387</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.29498004917321</v>
+        <v>32.06562202797725</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.920021893370979</v>
+        <v>13.21693422983201</v>
       </c>
       <c r="D6">
-        <v>5.028961483303788</v>
+        <v>7.818667543464977</v>
       </c>
       <c r="E6">
-        <v>8.0592096107884</v>
+        <v>13.79274446158474</v>
       </c>
       <c r="F6">
-        <v>25.51972681477843</v>
+        <v>41.38943576654809</v>
       </c>
       <c r="G6">
-        <v>2.132731700773438</v>
+        <v>3.718311201115412</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.241169226794095</v>
+        <v>10.93882647881477</v>
       </c>
       <c r="K6">
-        <v>17.66134910423615</v>
+        <v>16.94474747631206</v>
       </c>
       <c r="L6">
-        <v>5.419884940278631</v>
+        <v>9.528170428009968</v>
       </c>
       <c r="M6">
-        <v>14.74573545138862</v>
+        <v>19.51298746367785</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.30410117982997</v>
+        <v>32.07283953935064</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.997979482752964</v>
+        <v>13.21872290573182</v>
       </c>
       <c r="D7">
-        <v>5.081423693790556</v>
+        <v>7.824843495549351</v>
       </c>
       <c r="E7">
-        <v>8.063508154348352</v>
+        <v>13.78403250524959</v>
       </c>
       <c r="F7">
-        <v>25.49846924389534</v>
+        <v>41.33328976927346</v>
       </c>
       <c r="G7">
-        <v>2.130768095196668</v>
+        <v>3.71754938433225</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.219507826583373</v>
+        <v>10.92949235480374</v>
       </c>
       <c r="K7">
-        <v>18.09153768839825</v>
+        <v>17.06876784337999</v>
       </c>
       <c r="L7">
-        <v>5.409174017215609</v>
+        <v>9.52335323329676</v>
       </c>
       <c r="M7">
-        <v>14.99412557297716</v>
+        <v>19.55912310782578</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.24249044875373</v>
+        <v>32.02338804299479</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.346402904207125</v>
+        <v>13.23237120955236</v>
       </c>
       <c r="D8">
-        <v>5.309572570038536</v>
+        <v>7.853659703423562</v>
       </c>
       <c r="E8">
-        <v>8.090557394305371</v>
+        <v>13.74940607834237</v>
       </c>
       <c r="F8">
-        <v>25.46516595287211</v>
+        <v>41.10737469779865</v>
       </c>
       <c r="G8">
-        <v>2.12236367035767</v>
+        <v>3.714361236896412</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.127960035283317</v>
+        <v>10.89059943578238</v>
       </c>
       <c r="K8">
-        <v>19.88121010465268</v>
+        <v>17.6082626795191</v>
       </c>
       <c r="L8">
-        <v>5.36389891178592</v>
+        <v>9.503294418865302</v>
       </c>
       <c r="M8">
-        <v>16.05190988006245</v>
+        <v>19.76594355852525</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.01449555742054</v>
+        <v>31.82117588061772</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.0401362252814</v>
+        <v>13.27965371564855</v>
       </c>
       <c r="D9">
-        <v>5.741447203721261</v>
+        <v>7.915579682869946</v>
       </c>
       <c r="E9">
-        <v>8.173800448955427</v>
+        <v>13.69520307080965</v>
       </c>
       <c r="F9">
-        <v>25.63789714082688</v>
+        <v>40.74331366079845</v>
       </c>
       <c r="G9">
-        <v>2.106757441216222</v>
+        <v>3.708728822566887</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.962937825073093</v>
+        <v>10.82254237980973</v>
       </c>
       <c r="K9">
-        <v>23.00542957691452</v>
+        <v>18.62947220592374</v>
       </c>
       <c r="L9">
-        <v>5.282104830954719</v>
+        <v>9.468240014639356</v>
       </c>
       <c r="M9">
-        <v>17.97622868728497</v>
+        <v>20.18102388350644</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.743479953958</v>
+        <v>31.48239271651254</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.55195279494525</v>
+        <v>13.32671905572647</v>
       </c>
       <c r="D10">
-        <v>6.04671227292139</v>
+        <v>7.964178591637047</v>
       </c>
       <c r="E10">
-        <v>8.254412552488152</v>
+        <v>13.66371153007691</v>
       </c>
       <c r="F10">
-        <v>25.92829768476345</v>
+        <v>40.52437071367693</v>
       </c>
       <c r="G10">
-        <v>2.095761806969214</v>
+        <v>3.704964242228202</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.85055372858148</v>
+        <v>10.77750706140451</v>
       </c>
       <c r="K10">
-        <v>25.0711039263554</v>
+        <v>19.35020963217931</v>
       </c>
       <c r="L10">
-        <v>5.226111748814071</v>
+        <v>9.445070450020193</v>
       </c>
       <c r="M10">
-        <v>19.2908767178097</v>
+        <v>20.48985184724731</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.66966756990577</v>
+        <v>31.26890417293001</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.784506912869</v>
+        <v>13.35075948485443</v>
       </c>
       <c r="D11">
-        <v>6.182543809000032</v>
+        <v>7.986918580165485</v>
       </c>
       <c r="E11">
-        <v>8.295529519807211</v>
+        <v>13.65118961650668</v>
       </c>
       <c r="F11">
-        <v>26.09968616074257</v>
+        <v>40.43538911974638</v>
       </c>
       <c r="G11">
-        <v>2.090846612377325</v>
+        <v>3.703331871390429</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.801364780907972</v>
+        <v>10.75808924591114</v>
       </c>
       <c r="K11">
-        <v>25.96216057817613</v>
+        <v>19.67032502344515</v>
       </c>
       <c r="L11">
-        <v>5.201492700418316</v>
+        <v>9.435086035842161</v>
       </c>
       <c r="M11">
-        <v>19.86638698162075</v>
+        <v>20.63077162544942</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.66736553740783</v>
+        <v>31.17951832183011</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.87247884725381</v>
+        <v>13.36023644591956</v>
       </c>
       <c r="D12">
-        <v>6.233514799611097</v>
+        <v>7.995616637768683</v>
       </c>
       <c r="E12">
-        <v>8.311756640329101</v>
+        <v>13.64670683980216</v>
       </c>
       <c r="F12">
-        <v>26.1705319983375</v>
+        <v>40.40322743183099</v>
       </c>
       <c r="G12">
-        <v>2.088996482856533</v>
+        <v>3.702725194536896</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.783018735531418</v>
+        <v>10.7508893124155</v>
       </c>
       <c r="K12">
-        <v>26.29269058453224</v>
+        <v>19.79032816467321</v>
       </c>
       <c r="L12">
-        <v>5.192289558537583</v>
+        <v>9.431384682457329</v>
       </c>
       <c r="M12">
-        <v>20.08102457979818</v>
+        <v>20.68416157470433</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.67133788544523</v>
+        <v>31.14678593822322</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.85353730106568</v>
+        <v>13.35817888850253</v>
       </c>
       <c r="D13">
-        <v>6.222558391479769</v>
+        <v>7.993739554149803</v>
       </c>
       <c r="E13">
-        <v>8.308232334666373</v>
+        <v>13.64766077316711</v>
       </c>
       <c r="F13">
-        <v>26.15500508559352</v>
+        <v>40.41008570422454</v>
       </c>
       <c r="G13">
-        <v>2.089394467855036</v>
+        <v>3.702855344220582</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.786957350615872</v>
+        <v>10.75243314317464</v>
       </c>
       <c r="K13">
-        <v>26.22181000808354</v>
+        <v>19.76453904545742</v>
       </c>
       <c r="L13">
-        <v>5.194266352341496</v>
+        <v>9.432178303792918</v>
       </c>
       <c r="M13">
-        <v>20.0349457669915</v>
+        <v>20.67266246957095</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.67026133728902</v>
+        <v>31.15378573390558</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.7917465093606</v>
+        <v>13.35153170642861</v>
       </c>
       <c r="D14">
-        <v>6.186746698820118</v>
+        <v>7.987632455779931</v>
       </c>
       <c r="E14">
-        <v>8.296851265142733</v>
+        <v>13.65081562727621</v>
       </c>
       <c r="F14">
-        <v>26.10539389138141</v>
+        <v>40.4327123807393</v>
       </c>
       <c r="G14">
-        <v>2.09069418568063</v>
+        <v>3.703281730254565</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.799849797213043</v>
+        <v>10.7574938363592</v>
       </c>
       <c r="K14">
-        <v>25.98949105825193</v>
+        <v>19.68022271693208</v>
       </c>
       <c r="L14">
-        <v>5.200733174184916</v>
+        <v>9.43477993146014</v>
       </c>
       <c r="M14">
-        <v>19.88411163857748</v>
+        <v>20.63516371633002</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.66759325288694</v>
+        <v>31.1768030154911</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.75388460176024</v>
+        <v>13.3475085887154</v>
       </c>
       <c r="D15">
-        <v>6.16474961619387</v>
+        <v>7.983902881155587</v>
       </c>
       <c r="E15">
-        <v>8.289966122678894</v>
+        <v>13.65278178432957</v>
       </c>
       <c r="F15">
-        <v>26.0757883860461</v>
+        <v>40.44677181400191</v>
       </c>
       <c r="G15">
-        <v>2.091491710908127</v>
+        <v>3.703544395530087</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.807783440886656</v>
+        <v>10.76061358847332</v>
       </c>
       <c r="K15">
-        <v>25.84629423812054</v>
+        <v>19.62841504907851</v>
       </c>
       <c r="L15">
-        <v>5.204709766699079</v>
+        <v>9.436383849791829</v>
       </c>
       <c r="M15">
-        <v>19.7912909025603</v>
+        <v>20.61219707317379</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.66660022046629</v>
+        <v>31.19104724436988</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.53674467645515</v>
+        <v>13.32520047847683</v>
       </c>
       <c r="D16">
-        <v>6.037771684904871</v>
+        <v>7.962704861659983</v>
       </c>
       <c r="E16">
-        <v>8.251816435446624</v>
+        <v>13.66456613104556</v>
       </c>
       <c r="F16">
-        <v>25.91791305356346</v>
+        <v>40.53040011083154</v>
       </c>
       <c r="G16">
-        <v>2.09608466128152</v>
+        <v>3.705072529322444</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.853807475330278</v>
+        <v>10.77879752504566</v>
       </c>
       <c r="K16">
-        <v>25.01190108831064</v>
+        <v>19.32912436674446</v>
       </c>
       <c r="L16">
-        <v>5.227737560237283</v>
+        <v>9.445734103123892</v>
       </c>
       <c r="M16">
-        <v>19.25280712929321</v>
+        <v>20.48064807085723</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.67047683407408</v>
+        <v>31.2749016914824</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.40342635502367</v>
+        <v>13.31218551283213</v>
       </c>
       <c r="D17">
-        <v>5.959075113923749</v>
+        <v>7.949859661648697</v>
       </c>
       <c r="E17">
-        <v>8.229564115241418</v>
+        <v>13.67225716999863</v>
       </c>
       <c r="F17">
-        <v>25.83133686676449</v>
+        <v>40.58442761176494</v>
       </c>
       <c r="G17">
-        <v>2.098923598535628</v>
+        <v>3.706030477059404</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.882538880600135</v>
+        <v>10.7902261812086</v>
       </c>
       <c r="K17">
-        <v>24.4876417584085</v>
+        <v>19.14345796294389</v>
       </c>
       <c r="L17">
-        <v>5.242080599796999</v>
+        <v>9.451612211384909</v>
       </c>
       <c r="M17">
-        <v>18.91664750017031</v>
+        <v>20.40003245589204</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.6811098239122</v>
+        <v>31.32832690696729</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.32672193952845</v>
+        <v>13.30494752966161</v>
       </c>
       <c r="D18">
-        <v>5.913526639759041</v>
+        <v>7.942531183411705</v>
       </c>
       <c r="E18">
-        <v>8.217182598015111</v>
+        <v>13.67685065360552</v>
       </c>
       <c r="F18">
-        <v>25.78522106167078</v>
+        <v>40.61650167963528</v>
       </c>
       <c r="G18">
-        <v>2.100564733336332</v>
+        <v>3.706589011432655</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.899246377657798</v>
+        <v>10.79690029127275</v>
       </c>
       <c r="K18">
-        <v>24.18151825857899</v>
+        <v>19.03594355632607</v>
       </c>
       <c r="L18">
-        <v>5.250410766764634</v>
+        <v>9.455045454764567</v>
       </c>
       <c r="M18">
-        <v>18.72117861718517</v>
+        <v>20.35370730033599</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.69014819994329</v>
+        <v>31.35978310686314</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.30074888481164</v>
+        <v>13.30253958737254</v>
       </c>
       <c r="D19">
-        <v>5.898056855123039</v>
+        <v>7.940060266720803</v>
       </c>
       <c r="E19">
-        <v>8.213061587245861</v>
+        <v>13.67843510278755</v>
       </c>
       <c r="F19">
-        <v>25.77022999611923</v>
+        <v>40.62753274866003</v>
       </c>
       <c r="G19">
-        <v>2.101121849724993</v>
+        <v>3.706779419807012</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.904934436989033</v>
+        <v>10.79917733363094</v>
       </c>
       <c r="K19">
-        <v>24.07707996223174</v>
+        <v>18.99941994997396</v>
       </c>
       <c r="L19">
-        <v>5.25324512193188</v>
+        <v>9.456216887400348</v>
       </c>
       <c r="M19">
-        <v>18.65463438122321</v>
+        <v>20.33803083642987</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.69369994455111</v>
+        <v>31.37055844001462</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.4176211293403</v>
+        <v>13.31354535716495</v>
       </c>
       <c r="D20">
-        <v>5.96748214832713</v>
+        <v>7.951220900647606</v>
       </c>
       <c r="E20">
-        <v>8.231889583050123</v>
+        <v>13.67142087459927</v>
       </c>
       <c r="F20">
-        <v>25.84016995379524</v>
+        <v>40.57857286022941</v>
       </c>
       <c r="G20">
-        <v>2.098620543951217</v>
+        <v>3.705927721113764</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.87946152665821</v>
+        <v>10.78899916839397</v>
       </c>
       <c r="K20">
-        <v>24.54392372202017</v>
+        <v>19.16329817196095</v>
       </c>
       <c r="L20">
-        <v>5.24054545601532</v>
+        <v>9.450981065337634</v>
       </c>
       <c r="M20">
-        <v>18.95265202442898</v>
+        <v>20.40860995235046</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.67967296074939</v>
+        <v>31.32256438386155</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.80989880601985</v>
+        <v>13.35347405238037</v>
       </c>
       <c r="D21">
-        <v>6.197278298279443</v>
+        <v>7.989423931887801</v>
       </c>
       <c r="E21">
-        <v>8.300176187923277</v>
+        <v>13.64988194409975</v>
       </c>
       <c r="F21">
-        <v>26.11980225700648</v>
+        <v>40.42602469760557</v>
       </c>
       <c r="G21">
-        <v>2.090312135621517</v>
+        <v>3.703156179615556</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.796055330194718</v>
+        <v>10.75600323537331</v>
       </c>
       <c r="K21">
-        <v>26.05791504769927</v>
+        <v>19.70502229127865</v>
       </c>
       <c r="L21">
-        <v>5.198830492000956</v>
+        <v>9.434013614832539</v>
       </c>
       <c r="M21">
-        <v>19.9285050589614</v>
+        <v>20.64617756656615</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.66824267116091</v>
+        <v>31.17001195633192</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.06572574388088</v>
+        <v>13.38174352425357</v>
       </c>
       <c r="D22">
-        <v>6.344740585209633</v>
+        <v>8.014896529554083</v>
       </c>
       <c r="E22">
-        <v>8.348643439694653</v>
+        <v>13.63731446435597</v>
       </c>
       <c r="F22">
-        <v>26.33733858393153</v>
+        <v>40.335268435636</v>
       </c>
       <c r="G22">
-        <v>2.084946394296141</v>
+        <v>3.701411625467829</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.743182684676201</v>
+        <v>10.73533103999912</v>
       </c>
       <c r="K22">
-        <v>27.00726308651027</v>
+        <v>20.05193122043998</v>
       </c>
       <c r="L22">
-        <v>5.172262705262906</v>
+        <v>9.423387788643392</v>
       </c>
       <c r="M22">
-        <v>20.54706086433477</v>
+        <v>20.80158101626889</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.68917244882954</v>
+        <v>31.07681765785814</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.92925100763927</v>
+        <v>13.36645838282143</v>
       </c>
       <c r="D23">
-        <v>6.266294528546604</v>
+        <v>8.001256483241109</v>
       </c>
       <c r="E23">
-        <v>8.322418469170133</v>
+        <v>13.64388398119293</v>
       </c>
       <c r="F23">
-        <v>26.21795787653257</v>
+        <v>40.38288621342386</v>
       </c>
       <c r="G23">
-        <v>2.08780477701627</v>
+        <v>3.7023366334992</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.771250889855796</v>
+        <v>10.74628268943863</v>
       </c>
       <c r="K23">
-        <v>26.50421630479447</v>
+        <v>19.86746449602748</v>
       </c>
       <c r="L23">
-        <v>5.186379849679566</v>
+        <v>9.429016709930185</v>
       </c>
       <c r="M23">
-        <v>20.2186976099754</v>
+        <v>20.71863818646298</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.67528704917629</v>
+        <v>31.12596031527751</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.41120384827716</v>
+        <v>13.31292980961965</v>
       </c>
       <c r="D24">
-        <v>5.963682275090956</v>
+        <v>7.950605308539053</v>
       </c>
       <c r="E24">
-        <v>8.23083695822633</v>
+        <v>13.67179842857285</v>
       </c>
       <c r="F24">
-        <v>25.83616514383309</v>
+        <v>40.58121663861668</v>
       </c>
       <c r="G24">
-        <v>2.098757526821852</v>
+        <v>3.705974152783283</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.880852208521339</v>
+        <v>10.78955357805862</v>
       </c>
       <c r="K24">
-        <v>24.51849335490906</v>
+        <v>19.15433081115388</v>
       </c>
       <c r="L24">
-        <v>5.241239232144451</v>
+        <v>9.451266238727895</v>
       </c>
       <c r="M24">
-        <v>18.93638124645614</v>
+        <v>20.40473199546499</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.68031348103169</v>
+        <v>31.32516731160754</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.851807249371202</v>
+        <v>13.2646829527785</v>
       </c>
       <c r="D25">
-        <v>5.626562616604423</v>
+        <v>7.898268749243802</v>
       </c>
       <c r="E25">
-        <v>8.147939189191344</v>
+        <v>13.70840178907908</v>
       </c>
       <c r="F25">
-        <v>25.56376168390437</v>
+        <v>40.83330724791555</v>
       </c>
       <c r="G25">
-        <v>2.110891936666256</v>
+        <v>3.710186643014869</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.006028118001064</v>
+        <v>10.84007863863504</v>
       </c>
       <c r="K25">
-        <v>22.20097329425011</v>
+        <v>18.35791016037834</v>
       </c>
       <c r="L25">
-        <v>5.303500115448789</v>
+        <v>9.477267440629793</v>
       </c>
       <c r="M25">
-        <v>17.47262295313246</v>
+        <v>20.06791375764936</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.79613486796187</v>
+        <v>31.56783837514572</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_194/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_194/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.23746348673675</v>
+        <v>9.441690205457439</v>
       </c>
       <c r="D2">
-        <v>7.861840526418574</v>
+        <v>5.37044728820971</v>
       </c>
       <c r="E2">
-        <v>13.74095183263102</v>
+        <v>8.099890687006212</v>
       </c>
       <c r="F2">
-        <v>41.05149137349137</v>
+        <v>25.47155490368834</v>
       </c>
       <c r="G2">
-        <v>3.713539489774528</v>
+        <v>2.120147889713599</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.88061863655646</v>
+        <v>6.104136995790062</v>
       </c>
       <c r="K2">
-        <v>17.75223641474558</v>
+        <v>20.33986029482116</v>
       </c>
       <c r="L2">
-        <v>9.498150120840561</v>
+        <v>5.352110422180318</v>
       </c>
       <c r="M2">
-        <v>19.82269561601675</v>
+        <v>16.32872679289151</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>31.77028743180739</v>
+        <v>18.96399599685906</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.22425584661412</v>
+        <v>9.166251272366743</v>
       </c>
       <c r="D3">
-        <v>7.838529891602969</v>
+        <v>5.192792978160691</v>
       </c>
       <c r="E3">
-        <v>13.76651090745077</v>
+        <v>8.075084819574665</v>
       </c>
       <c r="F3">
-        <v>41.21954515935457</v>
+        <v>25.4705824702642</v>
       </c>
       <c r="G3">
-        <v>3.715969857776541</v>
+        <v>2.126642166316797</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.91018932197322</v>
+        <v>6.174329517671919</v>
       </c>
       <c r="K3">
-        <v>17.33209219143146</v>
+        <v>18.98029971492326</v>
       </c>
       <c r="L3">
-        <v>9.513395207208077</v>
+        <v>5.386834292462714</v>
       </c>
       <c r="M3">
-        <v>19.65887455561484</v>
+        <v>15.51474717126323</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>31.92225163239497</v>
+        <v>19.12334043793782</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.21874699075762</v>
+        <v>8.998894365841972</v>
       </c>
       <c r="D4">
-        <v>7.824916626170099</v>
+        <v>5.082035912754781</v>
       </c>
       <c r="E4">
-        <v>13.78393265460808</v>
+        <v>8.063562817594452</v>
       </c>
       <c r="F4">
-        <v>41.33264472467492</v>
+        <v>25.49825262260822</v>
       </c>
       <c r="G4">
-        <v>3.717540565344657</v>
+        <v>2.130745263944746</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.92938439290766</v>
+        <v>6.219256574031668</v>
       </c>
       <c r="K4">
-        <v>17.0702152158143</v>
+        <v>18.09651172756281</v>
       </c>
       <c r="L4">
-        <v>9.523297523306272</v>
+        <v>5.409049782680077</v>
       </c>
       <c r="M4">
-        <v>19.55966481800317</v>
+        <v>14.99701180175841</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>32.02281814851498</v>
+        <v>19.2417927112492</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.2171583315758</v>
+        <v>8.931224002026186</v>
       </c>
       <c r="D5">
-        <v>7.819548088194829</v>
+        <v>5.036536832179288</v>
       </c>
       <c r="E5">
-        <v>13.79146709523165</v>
+        <v>8.059782572384471</v>
       </c>
       <c r="F5">
-        <v>41.38121992805446</v>
+        <v>25.51632464465943</v>
       </c>
       <c r="G5">
-        <v>3.718200433273164</v>
+        <v>2.13244725333521</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.93746831961207</v>
+        <v>6.238024940209601</v>
       </c>
       <c r="K5">
-        <v>16.9626546028017</v>
+        <v>17.72396173697932</v>
       </c>
       <c r="L5">
-        <v>9.527469423672184</v>
+        <v>5.418330143759338</v>
       </c>
       <c r="M5">
-        <v>19.51961410422387</v>
+        <v>14.78173441273102</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>32.06562202797725</v>
+        <v>19.29498004917308</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.21693422983201</v>
+        <v>8.920021893371093</v>
       </c>
       <c r="D6">
-        <v>7.818667543464977</v>
+        <v>5.028961483303747</v>
       </c>
       <c r="E6">
-        <v>13.79274446158474</v>
+        <v>8.059209610788459</v>
       </c>
       <c r="F6">
-        <v>41.38943576654809</v>
+        <v>25.51972681477859</v>
       </c>
       <c r="G6">
-        <v>3.718311201115412</v>
+        <v>2.132731700773436</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.93882647881477</v>
+        <v>6.241169226794091</v>
       </c>
       <c r="K6">
-        <v>16.94474747631206</v>
+        <v>17.66134910423614</v>
       </c>
       <c r="L6">
-        <v>9.528170428009968</v>
+        <v>5.419884940278664</v>
       </c>
       <c r="M6">
-        <v>19.51298746367785</v>
+        <v>14.74573545138864</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>32.07283953935064</v>
+        <v>19.30410117983005</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.21872290573182</v>
+        <v>8.997979482753051</v>
       </c>
       <c r="D7">
-        <v>7.824843495549351</v>
+        <v>5.081423693790596</v>
       </c>
       <c r="E7">
-        <v>13.78403250524959</v>
+        <v>8.063508154348522</v>
       </c>
       <c r="F7">
-        <v>41.33328976927346</v>
+        <v>25.49846924389541</v>
       </c>
       <c r="G7">
-        <v>3.71754938433225</v>
+        <v>2.130768095196533</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.92949235480374</v>
+        <v>6.219507826583472</v>
       </c>
       <c r="K7">
-        <v>17.06876784337999</v>
+        <v>18.09153768839824</v>
       </c>
       <c r="L7">
-        <v>9.52335323329676</v>
+        <v>5.409174017215739</v>
       </c>
       <c r="M7">
-        <v>19.55912310782578</v>
+        <v>14.99412557297719</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>32.02338804299479</v>
+        <v>19.24249044875373</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.23237120955236</v>
+        <v>9.346402904207201</v>
       </c>
       <c r="D8">
-        <v>7.853659703423562</v>
+        <v>5.309572570038476</v>
       </c>
       <c r="E8">
-        <v>13.74940607834237</v>
+        <v>8.09055739430532</v>
       </c>
       <c r="F8">
-        <v>41.10737469779865</v>
+        <v>25.46516595287199</v>
       </c>
       <c r="G8">
-        <v>3.714361236896412</v>
+        <v>2.122363670357803</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.89059943578238</v>
+        <v>6.127960035283286</v>
       </c>
       <c r="K8">
-        <v>17.6082626795191</v>
+        <v>19.88121010465269</v>
       </c>
       <c r="L8">
-        <v>9.503294418865302</v>
+        <v>5.363898911785854</v>
       </c>
       <c r="M8">
-        <v>19.76594355852525</v>
+        <v>16.05190988006243</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>31.82117588061772</v>
+        <v>19.01449555742048</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.27965371564855</v>
+        <v>10.04013622528155</v>
       </c>
       <c r="D9">
-        <v>7.915579682869946</v>
+        <v>5.741447203721306</v>
       </c>
       <c r="E9">
-        <v>13.69520307080965</v>
+        <v>8.173800448955491</v>
       </c>
       <c r="F9">
-        <v>40.74331366079845</v>
+        <v>25.63789714082685</v>
       </c>
       <c r="G9">
-        <v>3.708728822566887</v>
+        <v>2.106757441216225</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.82254237980973</v>
+        <v>5.962937825073097</v>
       </c>
       <c r="K9">
-        <v>18.62947220592374</v>
+        <v>23.00542957691454</v>
       </c>
       <c r="L9">
-        <v>9.468240014639356</v>
+        <v>5.282104830954687</v>
       </c>
       <c r="M9">
-        <v>20.18102388350644</v>
+        <v>17.97622868728497</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.48239271651254</v>
+        <v>18.74347995395794</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.32671905572647</v>
+        <v>10.55195279494537</v>
       </c>
       <c r="D10">
-        <v>7.964178591637047</v>
+        <v>6.046712272921454</v>
       </c>
       <c r="E10">
-        <v>13.66371153007691</v>
+        <v>8.254412552488203</v>
       </c>
       <c r="F10">
-        <v>40.52437071367693</v>
+        <v>25.92829768476351</v>
       </c>
       <c r="G10">
-        <v>3.704964242228202</v>
+        <v>2.095761806969348</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.77750706140451</v>
+        <v>5.850553728581515</v>
       </c>
       <c r="K10">
-        <v>19.35020963217931</v>
+        <v>25.07110392635537</v>
       </c>
       <c r="L10">
-        <v>9.445070450020193</v>
+        <v>5.226111748814072</v>
       </c>
       <c r="M10">
-        <v>20.48985184724731</v>
+        <v>19.29087671780971</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>31.26890417293001</v>
+        <v>18.6696675699058</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.35075948485443</v>
+        <v>10.78450691286893</v>
       </c>
       <c r="D11">
-        <v>7.986918580165485</v>
+        <v>6.182543809000086</v>
       </c>
       <c r="E11">
-        <v>13.65118961650668</v>
+        <v>8.295529519807209</v>
       </c>
       <c r="F11">
-        <v>40.43538911974638</v>
+        <v>26.0996861607427</v>
       </c>
       <c r="G11">
-        <v>3.703331871390429</v>
+        <v>2.090846612377192</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.75808924591114</v>
+        <v>5.801364780907976</v>
       </c>
       <c r="K11">
-        <v>19.67032502344515</v>
+        <v>25.96216057817608</v>
       </c>
       <c r="L11">
-        <v>9.435086035842161</v>
+        <v>5.201492700418315</v>
       </c>
       <c r="M11">
-        <v>20.63077162544942</v>
+        <v>19.86638698162076</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>31.17951832183011</v>
+        <v>18.66736553740794</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.36023644591956</v>
+        <v>10.87247884725387</v>
       </c>
       <c r="D12">
-        <v>7.995616637768683</v>
+        <v>6.233514799611094</v>
       </c>
       <c r="E12">
-        <v>13.64670683980216</v>
+        <v>8.311756640329044</v>
       </c>
       <c r="F12">
-        <v>40.40322743183099</v>
+        <v>26.17053199833745</v>
       </c>
       <c r="G12">
-        <v>3.702725194536896</v>
+        <v>2.088996482856397</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.7508893124155</v>
+        <v>5.783018735531329</v>
       </c>
       <c r="K12">
-        <v>19.79032816467321</v>
+        <v>26.29269058453228</v>
       </c>
       <c r="L12">
-        <v>9.431384682457329</v>
+        <v>5.192289558537519</v>
       </c>
       <c r="M12">
-        <v>20.68416157470433</v>
+        <v>20.08102457979816</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>31.14678593822322</v>
+        <v>18.67133788544518</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.35817888850253</v>
+        <v>10.85353730106559</v>
       </c>
       <c r="D13">
-        <v>7.993739554149803</v>
+        <v>6.222558391479695</v>
       </c>
       <c r="E13">
-        <v>13.64766077316711</v>
+        <v>8.30823233466635</v>
       </c>
       <c r="F13">
-        <v>40.41008570422454</v>
+        <v>26.15500508559332</v>
       </c>
       <c r="G13">
-        <v>3.702855344220582</v>
+        <v>2.089394467854903</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.75243314317464</v>
+        <v>5.786957350615879</v>
       </c>
       <c r="K13">
-        <v>19.76453904545742</v>
+        <v>26.2218100080836</v>
       </c>
       <c r="L13">
-        <v>9.432178303792918</v>
+        <v>5.194266352341499</v>
       </c>
       <c r="M13">
-        <v>20.67266246957095</v>
+        <v>20.03494576699148</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>31.15378573390558</v>
+        <v>18.67026133728885</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.35153170642861</v>
+        <v>10.79174650936064</v>
       </c>
       <c r="D14">
-        <v>7.987632455779931</v>
+        <v>6.186746698820122</v>
       </c>
       <c r="E14">
-        <v>13.65081562727621</v>
+        <v>8.296851265142729</v>
       </c>
       <c r="F14">
-        <v>40.4327123807393</v>
+        <v>26.10539389138147</v>
       </c>
       <c r="G14">
-        <v>3.703281730254565</v>
+        <v>2.090694185681032</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.7574938363592</v>
+        <v>5.799849797213007</v>
       </c>
       <c r="K14">
-        <v>19.68022271693208</v>
+        <v>25.98949105825195</v>
       </c>
       <c r="L14">
-        <v>9.43477993146014</v>
+        <v>5.200733174184853</v>
       </c>
       <c r="M14">
-        <v>20.63516371633002</v>
+        <v>19.88411163857745</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>31.1768030154911</v>
+        <v>18.66759325288699</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.3475085887154</v>
+        <v>10.7538846017603</v>
       </c>
       <c r="D15">
-        <v>7.983902881155587</v>
+        <v>6.164749616193946</v>
       </c>
       <c r="E15">
-        <v>13.65278178432957</v>
+        <v>8.289966122678889</v>
       </c>
       <c r="F15">
-        <v>40.44677181400191</v>
+        <v>26.07578838604613</v>
       </c>
       <c r="G15">
-        <v>3.703544395530087</v>
+        <v>2.091491710908128</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.76061358847332</v>
+        <v>5.807783440886594</v>
       </c>
       <c r="K15">
-        <v>19.62841504907851</v>
+        <v>25.84629423812053</v>
       </c>
       <c r="L15">
-        <v>9.436383849791829</v>
+        <v>5.204709766699013</v>
       </c>
       <c r="M15">
-        <v>20.61219707317379</v>
+        <v>19.79129090256031</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>31.19104724436988</v>
+        <v>18.66660022046629</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.32520047847683</v>
+        <v>10.53674467645508</v>
       </c>
       <c r="D16">
-        <v>7.962704861659983</v>
+        <v>6.037771684904934</v>
       </c>
       <c r="E16">
-        <v>13.66456613104556</v>
+        <v>8.251816435446626</v>
       </c>
       <c r="F16">
-        <v>40.53040011083154</v>
+        <v>25.91791305356348</v>
       </c>
       <c r="G16">
-        <v>3.705072529322444</v>
+        <v>2.096084661281654</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.77879752504566</v>
+        <v>5.853807475330218</v>
       </c>
       <c r="K16">
-        <v>19.32912436674446</v>
+        <v>25.01190108831062</v>
       </c>
       <c r="L16">
-        <v>9.445734103123892</v>
+        <v>5.227737560237318</v>
       </c>
       <c r="M16">
-        <v>20.48064807085723</v>
+        <v>19.25280712929321</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>31.2749016914824</v>
+        <v>18.67047683407405</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.31218551283213</v>
+        <v>10.40342635502365</v>
       </c>
       <c r="D17">
-        <v>7.949859661648697</v>
+        <v>5.959075113923698</v>
       </c>
       <c r="E17">
-        <v>13.67225716999863</v>
+        <v>8.229564115241422</v>
       </c>
       <c r="F17">
-        <v>40.58442761176494</v>
+        <v>25.83133686676447</v>
       </c>
       <c r="G17">
-        <v>3.706030477059404</v>
+        <v>2.098923598535627</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.7902261812086</v>
+        <v>5.882538880600166</v>
       </c>
       <c r="K17">
-        <v>19.14345796294389</v>
+        <v>24.4876417584085</v>
       </c>
       <c r="L17">
-        <v>9.451612211384909</v>
+        <v>5.242080599797003</v>
       </c>
       <c r="M17">
-        <v>20.40003245589204</v>
+        <v>18.91664750017032</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>31.32832690696729</v>
+        <v>18.68110982391221</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.30494752966161</v>
+        <v>10.32672193952843</v>
       </c>
       <c r="D18">
-        <v>7.942531183411705</v>
+        <v>5.913526639758997</v>
       </c>
       <c r="E18">
-        <v>13.67685065360552</v>
+        <v>8.217182598015109</v>
       </c>
       <c r="F18">
-        <v>40.61650167963528</v>
+        <v>25.78522106167092</v>
       </c>
       <c r="G18">
-        <v>3.706589011432655</v>
+        <v>2.100564733336464</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.79690029127275</v>
+        <v>5.89924637765783</v>
       </c>
       <c r="K18">
-        <v>19.03594355632607</v>
+        <v>24.18151825857895</v>
       </c>
       <c r="L18">
-        <v>9.455045454764567</v>
+        <v>5.250410766764598</v>
       </c>
       <c r="M18">
-        <v>20.35370730033599</v>
+        <v>18.72117861718518</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>31.35978310686314</v>
+        <v>18.69014819994342</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.30253958737254</v>
+        <v>10.30074888481168</v>
       </c>
       <c r="D19">
-        <v>7.940060266720803</v>
+        <v>5.898056855123024</v>
       </c>
       <c r="E19">
-        <v>13.67843510278755</v>
+        <v>8.213061587245871</v>
       </c>
       <c r="F19">
-        <v>40.62753274866003</v>
+        <v>25.77022999611914</v>
       </c>
       <c r="G19">
-        <v>3.706779419807012</v>
+        <v>2.101121849725129</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.79917733363094</v>
+        <v>5.904934436989007</v>
       </c>
       <c r="K19">
-        <v>18.99941994997396</v>
+        <v>24.07707996223174</v>
       </c>
       <c r="L19">
-        <v>9.456216887400348</v>
+        <v>5.25324512193182</v>
       </c>
       <c r="M19">
-        <v>20.33803083642987</v>
+        <v>18.65463438122322</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>31.37055844001462</v>
+        <v>18.69369994455106</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.31354535716495</v>
+        <v>10.41762112934027</v>
       </c>
       <c r="D20">
-        <v>7.951220900647606</v>
+        <v>5.967482148327045</v>
       </c>
       <c r="E20">
-        <v>13.67142087459927</v>
+        <v>8.231889583050085</v>
       </c>
       <c r="F20">
-        <v>40.57857286022941</v>
+        <v>25.84016995379547</v>
       </c>
       <c r="G20">
-        <v>3.705927721113764</v>
+        <v>2.098620543950951</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.78899916839397</v>
+        <v>5.879461526658273</v>
       </c>
       <c r="K20">
-        <v>19.16329817196095</v>
+        <v>24.54392372202011</v>
       </c>
       <c r="L20">
-        <v>9.450981065337634</v>
+        <v>5.240545456015255</v>
       </c>
       <c r="M20">
-        <v>20.40860995235046</v>
+        <v>18.952652024429</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>31.32256438386155</v>
+        <v>18.67967296074961</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.35347405238037</v>
+        <v>10.80989880601978</v>
       </c>
       <c r="D21">
-        <v>7.989423931887801</v>
+        <v>6.197278298279374</v>
       </c>
       <c r="E21">
-        <v>13.64988194409975</v>
+        <v>8.300176187923324</v>
       </c>
       <c r="F21">
-        <v>40.42602469760557</v>
+        <v>26.1198022570063</v>
       </c>
       <c r="G21">
-        <v>3.703156179615556</v>
+        <v>2.090312135621383</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.75600323537331</v>
+        <v>5.796055330194783</v>
       </c>
       <c r="K21">
-        <v>19.70502229127865</v>
+        <v>26.0579150476993</v>
       </c>
       <c r="L21">
-        <v>9.434013614832539</v>
+        <v>5.198830492000956</v>
       </c>
       <c r="M21">
-        <v>20.64617756656615</v>
+        <v>19.9285050589614</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>31.17001195633192</v>
+        <v>18.66824267116076</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.38174352425357</v>
+        <v>11.06572574388086</v>
       </c>
       <c r="D22">
-        <v>8.014896529554083</v>
+        <v>6.344740585209584</v>
       </c>
       <c r="E22">
-        <v>13.63731446435597</v>
+        <v>8.348643439694605</v>
       </c>
       <c r="F22">
-        <v>40.335268435636</v>
+        <v>26.33733858393164</v>
       </c>
       <c r="G22">
-        <v>3.701411625467829</v>
+        <v>2.084946394295874</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.73533103999912</v>
+        <v>5.743182684676292</v>
       </c>
       <c r="K22">
-        <v>20.05193122043998</v>
+        <v>27.00726308651025</v>
       </c>
       <c r="L22">
-        <v>9.423387788643392</v>
+        <v>5.172262705262907</v>
       </c>
       <c r="M22">
-        <v>20.80158101626889</v>
+        <v>20.54706086433477</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>31.07681765785814</v>
+        <v>18.68917244882967</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.36645838282143</v>
+        <v>10.92925100763923</v>
       </c>
       <c r="D23">
-        <v>8.001256483241109</v>
+        <v>6.266294528546617</v>
       </c>
       <c r="E23">
-        <v>13.64388398119293</v>
+        <v>8.322418469170236</v>
       </c>
       <c r="F23">
-        <v>40.38288621342386</v>
+        <v>26.21795787653245</v>
       </c>
       <c r="G23">
-        <v>3.7023366334992</v>
+        <v>2.087804777016269</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.74628268943863</v>
+        <v>5.771250889855825</v>
       </c>
       <c r="K23">
-        <v>19.86746449602748</v>
+        <v>26.50421630479449</v>
       </c>
       <c r="L23">
-        <v>9.429016709930185</v>
+        <v>5.186379849679631</v>
       </c>
       <c r="M23">
-        <v>20.71863818646298</v>
+        <v>20.2186976099754</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>31.12596031527751</v>
+        <v>18.67528704917617</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.31292980961965</v>
+        <v>10.41120384827718</v>
       </c>
       <c r="D24">
-        <v>7.950605308539053</v>
+        <v>5.963682275090956</v>
       </c>
       <c r="E24">
-        <v>13.67179842857285</v>
+        <v>8.230836958226291</v>
       </c>
       <c r="F24">
-        <v>40.58121663861668</v>
+        <v>25.83616514383301</v>
       </c>
       <c r="G24">
-        <v>3.705974152783283</v>
+        <v>2.098757526821452</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.78955357805862</v>
+        <v>5.880852208521342</v>
       </c>
       <c r="K24">
-        <v>19.15433081115388</v>
+        <v>24.51849335490907</v>
       </c>
       <c r="L24">
-        <v>9.451266238727895</v>
+        <v>5.241239232144388</v>
       </c>
       <c r="M24">
-        <v>20.40473199546499</v>
+        <v>18.93638124645613</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>31.32516731160754</v>
+        <v>18.68031348103165</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.2646829527785</v>
+        <v>9.851807249371204</v>
       </c>
       <c r="D25">
-        <v>7.898268749243802</v>
+        <v>5.626562616604305</v>
       </c>
       <c r="E25">
-        <v>13.70840178907908</v>
+        <v>8.147939189191293</v>
       </c>
       <c r="F25">
-        <v>40.83330724791555</v>
+        <v>25.5637616839044</v>
       </c>
       <c r="G25">
-        <v>3.710186643014869</v>
+        <v>2.11089193666612</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.84007863863504</v>
+        <v>6.006028118001068</v>
       </c>
       <c r="K25">
-        <v>18.35791016037834</v>
+        <v>22.2009732942501</v>
       </c>
       <c r="L25">
-        <v>9.477267440629793</v>
+        <v>5.303500115448658</v>
       </c>
       <c r="M25">
-        <v>20.06791375764936</v>
+        <v>17.47262295313246</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.56783837514572</v>
+        <v>18.79613486796196</v>
       </c>
     </row>
   </sheetData>
